--- a/数据整理/stocks/A股/上证主板/600392-盛和资源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600392-盛和资源.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>050018</t>
+          <t>159962</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时行业轮动混合</t>
+          <t>华夏中证四川国企改革ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>96.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006440</t>
+          <t>050018</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中信建投中证500指数增强A</t>
+          <t>博时行业轮动混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006441</t>
+          <t>006440</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中信建投中证500指数增强C</t>
+          <t>中信建投中证500指数增强A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.41</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>0.80</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>159962</t>
+          <t>006441</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏中证四川国企改革ETF</t>
+          <t>中信建投中证500指数增强C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>96.22</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -660,15 +720,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>58.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>99.31</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.90</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7008</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -678,26 +748,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>165520</t>
+          <t>000478</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中信保诚中证800 有色指数（LOF）</t>
+          <t>建信中证500指数增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>41.69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6128</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -706,26 +786,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000478</t>
+          <t>165520</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>中信保诚中证800 有色指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>84.44</t>
+          <t>14.79</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4984</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -734,26 +824,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005633</t>
+          <t>159962</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>建信中证500指数增强C</t>
+          <t>华夏中证四川国企改革ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>84.44</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
+          <t>95.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1344</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -762,26 +862,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>510170</t>
+          <t>008180</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国联安上证大宗商品股票ETF</t>
+          <t>同泰慧利混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>96.15</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -790,26 +900,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>515590</t>
+          <t>510170</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源中证500等权重ETF</t>
+          <t>国联安上证大宗商品股票ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>96.64</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>96.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -818,26 +938,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>159962</t>
+          <t>008050</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华夏中证四川国企改革ETF</t>
+          <t>同泰慧择混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>95.88</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6.22</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -856,15 +986,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>94.90</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -874,25 +1014,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008050</t>
+          <t>008093</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>同泰慧择混合A</t>
+          <t>同泰慧选混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>95.06</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>2</v>
       </c>
     </row>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008051</t>
+          <t>005633</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>同泰慧择混合C</t>
+          <t>建信中证500指数增强C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>95.06</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008093</t>
+          <t>008524</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>同泰慧选混合A</t>
+          <t>华泰柏瑞锦瑞债券A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.91</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>008094</t>
+          <t>004546</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>同泰慧选混合C</t>
+          <t>建信量化优享定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.91</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
+          <t>36.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>008180</t>
+          <t>008094</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>同泰慧利混合A</t>
+          <t>同泰慧选混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1024,15 +1214,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>94.33</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>4.83</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>004546</t>
+          <t>008051</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>建信量化优享定期开放灵活配置混合</t>
+          <t>同泰慧择混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>36.71</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1070,25 +1280,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>008524</t>
+          <t>008525</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华泰柏瑞锦瑞债券A</t>
+          <t>华泰柏瑞锦瑞债券C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>20.09</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>2.77</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>008525</t>
+          <t>515590</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华泰柏瑞锦瑞债券C</t>
+          <t>前海开源中证500等权重ETF</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>20.09</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>3</v>
+          <t>96.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600392-盛和资源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600392-盛和资源.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1353,4 +1354,820 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0098</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5779</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5066</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2218</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2015</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159962</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏中证四川国企改革ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>58.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008050</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>同泰慧择混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>56.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004988</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>人保双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>22.37</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008051</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>同泰慧择混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004989</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>人保双利优选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>22.37</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600392-盛和资源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600392-盛和资源.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2170,4 +2171,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达资源行业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2044</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9817</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5700</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>37.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159962</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证四川国企改革ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600392-盛和资源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600392-盛和资源.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2569,4 +2570,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600392-盛和资源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600392-盛和资源.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2578,7 +2579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2589,17 +2590,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2609,14 +2630,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.08</v>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2030</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2625,14 +2668,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.99</v>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6207</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2641,14 +2706,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.28</v>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5752</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2657,13 +2744,493 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5108</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006601</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>49.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3544</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2151</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>37.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159962</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏中证四川国企改革ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>96.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006602</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>49.85</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.17</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600392-盛和资源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600392-盛和资源.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3129,7 +3130,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3140,17 +3141,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3160,14 +3181,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.87</v>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3642</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3176,14 +3219,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.08</v>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5884</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -3192,14 +3257,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.99</v>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1840</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -3208,14 +3295,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>17</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.28</v>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1764</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -3224,13 +3333,433 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>159608</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证稀有金属ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159962</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏中证四川国企改革ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014331</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF联接A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014332</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF联接C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>24.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003854</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003855</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006601</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>47.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006602</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>47.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.17</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600392-盛和资源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600392-盛和资源.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3642,7 +3643,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3653,17 +3654,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3673,14 +3694,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.43</v>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6870</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -3689,14 +3732,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.87</v>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6710</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -3705,14 +3770,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5685</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.08</v>
       </c>
     </row>
     <row r="5">
@@ -3721,14 +3808,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>20</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.99</v>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>57.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5211</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -3737,14 +3846,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>17</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.28</v>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5094</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -3753,13 +3884,2081 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4582</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4078</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2886</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2027</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2009</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1797</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1331</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1321</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013639</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014155</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011631</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011630</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012080</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>970041</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国海量化优选一年持有股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>78.07</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014156</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>970042</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国海量化优选一年持有股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013081</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011934</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011935</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159962</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏中证四川国企改革ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>96.21</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011824</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012081</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>013640</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009750</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004641</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>万家量化睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009751</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012808</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003854</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>003855</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011825</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>95.84</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>015596</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>56</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.17</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600392-盛和资源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600392-盛和资源.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>7.37</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D3" t="n">
-        <v>2.43</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>3.87</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>3.08</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>2.99</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>3.28</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>17</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -600,6 +617,1312 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9800</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>66.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6703</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3961</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实量化精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2242</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>016854</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011631</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011630</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013332</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011935</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009750</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009751</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011934</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>851088</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>850010</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>851099</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014171</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2781,7 +4104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3293,7 +4616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3843,7 +5166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4241,7 +5564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5057,7 +6380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5759,7 +7082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600392-盛和资源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600392-盛和资源.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>3.17</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D3" t="n">
-        <v>7.37</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D4" t="n">
-        <v>2.43</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>3.87</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>3.08</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>2.99</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>3.28</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>17</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>4</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -616,7 +633,537 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159962</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证四川国企改革ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8374</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3164</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实量化精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1385</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1051</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1922,7 +2469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4104,7 +4651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4616,7 +5163,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5166,7 +5713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5564,7 +6111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6380,7 +6927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7080,212 +7627,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>159962</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏中证四川国企改革ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>96.22</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0795</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>050018</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时行业轮动混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0779</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006440</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中信建投中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.41</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0112</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006441</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中信建投中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.41</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>